--- a/database/industries/methanol/shefan/product/quarterly.xlsx
+++ b/database/industries/methanol/shefan/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shefan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745AE9A6-98C8-4FAB-912A-DF0873512830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EC6F75-C39A-4AF2-AF4A-2404EB57D0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>هیدروژن</t>
@@ -602,12 +602,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -622,7 +622,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -671,7 +671,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -720,7 +720,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -772,7 +772,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -780,18 +780,18 @@
         <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
+      <c r="E10" s="9">
+        <v>58215</v>
+      </c>
+      <c r="F10" s="9">
+        <v>12917</v>
       </c>
       <c r="G10" s="9">
-        <v>12917</v>
-      </c>
-      <c r="H10" s="9">
         <v>13765</v>
       </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
@@ -811,7 +811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -828,29 +828,29 @@
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
+      <c r="H11" s="11">
+        <v>25508</v>
       </c>
       <c r="I11" s="11">
-        <v>25508</v>
+        <v>27854</v>
       </c>
       <c r="J11" s="11">
-        <v>27854</v>
+        <v>27470</v>
       </c>
       <c r="K11" s="11">
-        <v>27470</v>
+        <v>19101</v>
       </c>
       <c r="L11" s="11">
-        <v>19101</v>
+        <v>23963</v>
       </c>
       <c r="M11" s="11">
-        <v>23963</v>
+        <v>28452</v>
       </c>
       <c r="N11" s="11">
-        <v>28452</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25861</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -859,17 +859,17 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>26687</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>17</v>
+        <v>27638</v>
+      </c>
+      <c r="F12" s="9">
+        <v>28762</v>
       </c>
       <c r="G12" s="9">
-        <v>28762</v>
-      </c>
-      <c r="H12" s="9">
         <v>24029</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
@@ -889,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -906,29 +906,29 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
+      <c r="H13" s="11">
+        <v>243701</v>
       </c>
       <c r="I13" s="11">
-        <v>243701</v>
+        <v>237142</v>
       </c>
       <c r="J13" s="11">
-        <v>237142</v>
+        <v>240434</v>
       </c>
       <c r="K13" s="11">
-        <v>240434</v>
+        <v>241710</v>
       </c>
       <c r="L13" s="11">
-        <v>241710</v>
+        <v>223192</v>
       </c>
       <c r="M13" s="11">
-        <v>223192</v>
+        <v>195511</v>
       </c>
       <c r="N13" s="11">
-        <v>195511</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158388</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -937,17 +937,17 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>237543</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>17</v>
+        <v>238979</v>
+      </c>
+      <c r="F14" s="9">
+        <v>229092</v>
       </c>
       <c r="G14" s="9">
-        <v>229092</v>
-      </c>
-      <c r="H14" s="9">
         <v>218522</v>
       </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="9" t="s">
         <v>17</v>
       </c>
@@ -967,7 +967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -984,29 +984,29 @@
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
+      <c r="H15" s="11">
+        <v>36561</v>
       </c>
       <c r="I15" s="11">
-        <v>36561</v>
+        <v>36544</v>
       </c>
       <c r="J15" s="11">
-        <v>36544</v>
+        <v>36399</v>
       </c>
       <c r="K15" s="11">
-        <v>36399</v>
+        <v>22655</v>
       </c>
       <c r="L15" s="11">
-        <v>22655</v>
+        <v>34356</v>
       </c>
       <c r="M15" s="11">
-        <v>34356</v>
+        <v>39705</v>
       </c>
       <c r="N15" s="11">
-        <v>39705</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35172</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>38214</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>17</v>
+        <v>34984</v>
+      </c>
+      <c r="F16" s="9">
+        <v>40251</v>
       </c>
       <c r="G16" s="9">
-        <v>40251</v>
-      </c>
-      <c r="H16" s="9">
         <v>35157</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1053,8 +1053,8 @@
         <v>19</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>43376</v>
+      <c r="E17" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>17</v>
@@ -1062,29 +1062,29 @@
       <c r="G17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>17</v>
+      <c r="H17" s="11">
+        <v>25052</v>
       </c>
       <c r="I17" s="11">
-        <v>25052</v>
+        <v>4762</v>
       </c>
       <c r="J17" s="11">
-        <v>4762</v>
+        <v>9072</v>
       </c>
       <c r="K17" s="11">
-        <v>9072</v>
+        <v>12338</v>
       </c>
       <c r="L17" s="11">
-        <v>12338</v>
+        <v>9769</v>
       </c>
       <c r="M17" s="11">
-        <v>9769</v>
+        <v>9505</v>
       </c>
       <c r="N17" s="11">
-        <v>9505</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1099,8 +1099,8 @@
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
+      <c r="H18" s="9">
+        <v>0</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
@@ -1121,44 +1121,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
-        <v>345820</v>
+        <v>359816</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>311022</v>
       </c>
       <c r="G19" s="13">
-        <v>311022</v>
+        <v>291473</v>
       </c>
       <c r="H19" s="13">
-        <v>291473</v>
+        <v>330822</v>
       </c>
       <c r="I19" s="13">
-        <v>330822</v>
+        <v>306302</v>
       </c>
       <c r="J19" s="13">
-        <v>306302</v>
+        <v>313375</v>
       </c>
       <c r="K19" s="13">
-        <v>313375</v>
+        <v>295804</v>
       </c>
       <c r="L19" s="13">
-        <v>295804</v>
+        <v>291280</v>
       </c>
       <c r="M19" s="13">
-        <v>291280</v>
+        <v>273173</v>
       </c>
       <c r="N19" s="13">
-        <v>273173</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>226429</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1188,7 +1188,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1203,7 +1203,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1255,7 +1255,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>26</v>
       </c>
@@ -1302,8 +1302,8 @@
         <v>27</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11">
-        <v>0</v>
+      <c r="E26" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>17</v>
@@ -1333,23 +1333,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>17</v>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
-        <v>0</v>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>17</v>
@@ -1370,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -1379,37 +1379,37 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>4304</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>17</v>
+        <v>4490</v>
+      </c>
+      <c r="F28" s="11">
+        <v>5067</v>
       </c>
       <c r="G28" s="11">
-        <v>5067</v>
+        <v>3909</v>
       </c>
       <c r="H28" s="11">
-        <v>3909</v>
+        <v>4295</v>
       </c>
       <c r="I28" s="11">
-        <v>4295</v>
+        <v>3761</v>
       </c>
       <c r="J28" s="11">
-        <v>3761</v>
+        <v>2522</v>
       </c>
       <c r="K28" s="11">
-        <v>2522</v>
+        <v>2204</v>
       </c>
       <c r="L28" s="11">
-        <v>2204</v>
+        <v>3071</v>
       </c>
       <c r="M28" s="11">
-        <v>3071</v>
+        <v>4276</v>
       </c>
       <c r="N28" s="11">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>20</v>
       </c>
@@ -1418,37 +1418,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>248410</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>17</v>
+        <v>226364</v>
+      </c>
+      <c r="F29" s="9">
+        <v>212758</v>
       </c>
       <c r="G29" s="9">
-        <v>212758</v>
+        <v>164384</v>
       </c>
       <c r="H29" s="9">
-        <v>164384</v>
+        <v>222751</v>
       </c>
       <c r="I29" s="9">
-        <v>222751</v>
+        <v>228703</v>
       </c>
       <c r="J29" s="9">
-        <v>228703</v>
+        <v>208913</v>
       </c>
       <c r="K29" s="9">
-        <v>208913</v>
+        <v>195866</v>
       </c>
       <c r="L29" s="9">
-        <v>195866</v>
+        <v>288264</v>
       </c>
       <c r="M29" s="9">
-        <v>288264</v>
+        <v>133329</v>
       </c>
       <c r="N29" s="9">
-        <v>133329</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182332</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>21</v>
       </c>
@@ -1457,37 +1457,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>38112</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>17</v>
+        <v>39599</v>
+      </c>
+      <c r="F30" s="11">
+        <v>41479</v>
       </c>
       <c r="G30" s="11">
-        <v>41479</v>
+        <v>35497</v>
       </c>
       <c r="H30" s="11">
-        <v>35497</v>
+        <v>34696</v>
       </c>
       <c r="I30" s="11">
-        <v>34696</v>
+        <v>34899</v>
       </c>
       <c r="J30" s="11">
-        <v>34899</v>
+        <v>34292</v>
       </c>
       <c r="K30" s="11">
-        <v>34292</v>
+        <v>29770</v>
       </c>
       <c r="L30" s="11">
-        <v>29770</v>
+        <v>26820</v>
       </c>
       <c r="M30" s="11">
-        <v>26820</v>
+        <v>29754</v>
       </c>
       <c r="N30" s="11">
-        <v>29754</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>22</v>
       </c>
@@ -1652,37 +1652,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>20811</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>17</v>
+        <v>14837</v>
+      </c>
+      <c r="F35" s="9">
+        <v>12917</v>
       </c>
       <c r="G35" s="9">
-        <v>12917</v>
+        <v>13765</v>
       </c>
       <c r="H35" s="9">
-        <v>13765</v>
+        <v>11288</v>
       </c>
       <c r="I35" s="9">
-        <v>11288</v>
+        <v>4761</v>
       </c>
       <c r="J35" s="9">
-        <v>4761</v>
+        <v>9072</v>
       </c>
       <c r="K35" s="9">
-        <v>9072</v>
+        <v>12338</v>
       </c>
       <c r="L35" s="9">
-        <v>12338</v>
+        <v>9769</v>
       </c>
       <c r="M35" s="9">
-        <v>9769</v>
+        <v>9506</v>
       </c>
       <c r="N35" s="9">
-        <v>9506</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1691,8 @@
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>17</v>
+      <c r="F36" s="11">
+        <v>0</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -1719,44 +1719,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>311637</v>
+        <v>285290</v>
       </c>
       <c r="F37" s="15">
-        <v>0</v>
+        <v>272221</v>
       </c>
       <c r="G37" s="15">
-        <v>272221</v>
+        <v>217555</v>
       </c>
       <c r="H37" s="15">
-        <v>217555</v>
+        <v>273030</v>
       </c>
       <c r="I37" s="15">
-        <v>273030</v>
+        <v>272124</v>
       </c>
       <c r="J37" s="15">
-        <v>272124</v>
+        <v>254799</v>
       </c>
       <c r="K37" s="15">
-        <v>254799</v>
+        <v>240178</v>
       </c>
       <c r="L37" s="15">
-        <v>240178</v>
+        <v>327924</v>
       </c>
       <c r="M37" s="15">
-        <v>327924</v>
+        <v>176865</v>
       </c>
       <c r="N37" s="15">
-        <v>176865</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>238278</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1771,7 +1771,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1786,7 +1786,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1801,7 +1801,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1853,7 +1853,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>26</v>
       </c>
@@ -1903,14 +1903,14 @@
       <c r="E44" s="11">
         <v>0</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>17</v>
+      <c r="F44" s="11">
+        <v>0</v>
       </c>
       <c r="G44" s="11">
         <v>0</v>
       </c>
-      <c r="H44" s="11">
-        <v>0</v>
+      <c r="H44" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>17</v>
@@ -1931,7 +1931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>18</v>
       </c>
@@ -1940,37 +1940,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>111921</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>17</v>
+        <v>102703</v>
+      </c>
+      <c r="F45" s="9">
+        <v>170582</v>
       </c>
       <c r="G45" s="9">
-        <v>170582</v>
+        <v>100805</v>
       </c>
       <c r="H45" s="9">
-        <v>100805</v>
+        <v>235774</v>
       </c>
       <c r="I45" s="9">
-        <v>235774</v>
+        <v>114425</v>
       </c>
       <c r="J45" s="9">
-        <v>114425</v>
+        <v>602825</v>
       </c>
       <c r="K45" s="9">
-        <v>602825</v>
+        <v>147093</v>
       </c>
       <c r="L45" s="9">
-        <v>147093</v>
+        <v>623396</v>
       </c>
       <c r="M45" s="9">
-        <v>623396</v>
+        <v>375916</v>
       </c>
       <c r="N45" s="9">
-        <v>375916</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>501518</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>20</v>
       </c>
@@ -1979,37 +1979,37 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>7928026</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>17</v>
+        <v>13273918</v>
+      </c>
+      <c r="F46" s="11">
+        <v>15794583</v>
       </c>
       <c r="G46" s="11">
-        <v>15794583</v>
+        <v>11101197</v>
       </c>
       <c r="H46" s="11">
-        <v>11101197</v>
+        <v>15933222</v>
       </c>
       <c r="I46" s="11">
-        <v>15933222</v>
+        <v>20133122</v>
       </c>
       <c r="J46" s="11">
-        <v>20133122</v>
+        <v>16924183</v>
       </c>
       <c r="K46" s="11">
-        <v>16924183</v>
+        <v>16249580</v>
       </c>
       <c r="L46" s="11">
-        <v>16249580</v>
+        <v>19968880</v>
       </c>
       <c r="M46" s="11">
-        <v>19968880</v>
+        <v>10441235</v>
       </c>
       <c r="N46" s="11">
-        <v>10441235</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17424820</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>21</v>
       </c>
@@ -2018,37 +2018,37 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>2111061</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>17</v>
+        <v>3108396</v>
+      </c>
+      <c r="F47" s="9">
+        <v>5944498</v>
       </c>
       <c r="G47" s="9">
-        <v>5944498</v>
+        <v>7022305</v>
       </c>
       <c r="H47" s="9">
-        <v>7022305</v>
+        <v>6799221</v>
       </c>
       <c r="I47" s="9">
-        <v>6799221</v>
+        <v>8266162</v>
       </c>
       <c r="J47" s="9">
-        <v>8266162</v>
+        <v>6417194</v>
       </c>
       <c r="K47" s="9">
-        <v>6417194</v>
+        <v>4543078</v>
       </c>
       <c r="L47" s="9">
-        <v>4543078</v>
+        <v>3755836</v>
       </c>
       <c r="M47" s="9">
-        <v>3755836</v>
+        <v>3357303</v>
       </c>
       <c r="N47" s="9">
-        <v>3357303</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5189493</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>30</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>22</v>
       </c>
@@ -2213,37 +2213,37 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>107545</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>17</v>
+        <v>84927</v>
+      </c>
+      <c r="F52" s="11">
+        <v>91228</v>
       </c>
       <c r="G52" s="11">
-        <v>91228</v>
+        <v>91777</v>
       </c>
       <c r="H52" s="11">
-        <v>91777</v>
+        <v>80714</v>
       </c>
       <c r="I52" s="11">
-        <v>80714</v>
+        <v>59014</v>
       </c>
       <c r="J52" s="11">
-        <v>59014</v>
+        <v>116749</v>
       </c>
       <c r="K52" s="11">
-        <v>116749</v>
+        <v>85883</v>
       </c>
       <c r="L52" s="11">
-        <v>85883</v>
+        <v>85031</v>
       </c>
       <c r="M52" s="11">
-        <v>85031</v>
+        <v>87804</v>
       </c>
       <c r="N52" s="11">
-        <v>87804</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>59557</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>23</v>
       </c>
@@ -2254,8 +2254,8 @@
       <c r="E53" s="9">
         <v>0</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>17</v>
+      <c r="F53" s="9">
+        <v>0</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
@@ -2282,44 +2282,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>10258553</v>
+        <v>16569944</v>
       </c>
       <c r="F54" s="13">
-        <v>0</v>
+        <v>22000891</v>
       </c>
       <c r="G54" s="13">
-        <v>22000891</v>
+        <v>18316084</v>
       </c>
       <c r="H54" s="13">
-        <v>18316084</v>
+        <v>23048931</v>
       </c>
       <c r="I54" s="13">
-        <v>23048931</v>
+        <v>28572723</v>
       </c>
       <c r="J54" s="13">
-        <v>28572723</v>
+        <v>24060951</v>
       </c>
       <c r="K54" s="13">
-        <v>24060951</v>
+        <v>21025634</v>
       </c>
       <c r="L54" s="13">
-        <v>21025634</v>
+        <v>24433143</v>
       </c>
       <c r="M54" s="13">
-        <v>24433143</v>
+        <v>14262258</v>
       </c>
       <c r="N54" s="13">
-        <v>14262258</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23175388</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2334,7 +2334,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>34</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2416,7 +2416,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>26</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
@@ -2503,37 +2503,37 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>26003950</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>17</v>
+        <v>22873719</v>
+      </c>
+      <c r="F62" s="9">
+        <v>33665285</v>
       </c>
       <c r="G62" s="9">
-        <v>33665285</v>
+        <v>25787925</v>
       </c>
       <c r="H62" s="9">
-        <v>25787925</v>
+        <v>54894994</v>
       </c>
       <c r="I62" s="9">
-        <v>54894994</v>
+        <v>30424089</v>
       </c>
       <c r="J62" s="9">
-        <v>30424089</v>
+        <v>239026566</v>
       </c>
       <c r="K62" s="9">
-        <v>239026566</v>
+        <v>66739111</v>
       </c>
       <c r="L62" s="9">
-        <v>66739111</v>
+        <v>202994464</v>
       </c>
       <c r="M62" s="9">
-        <v>202994464</v>
+        <v>87913003</v>
       </c>
       <c r="N62" s="9">
-        <v>87913003</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>122560606</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2542,37 +2542,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>31915084</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>17</v>
+        <v>58639704</v>
+      </c>
+      <c r="F63" s="11">
+        <v>74237317</v>
       </c>
       <c r="G63" s="11">
-        <v>74237317</v>
+        <v>67532102</v>
       </c>
       <c r="H63" s="11">
-        <v>67532102</v>
+        <v>71529295</v>
       </c>
       <c r="I63" s="11">
-        <v>71529295</v>
+        <v>88031735</v>
       </c>
       <c r="J63" s="11">
-        <v>88031735</v>
+        <v>81010674</v>
       </c>
       <c r="K63" s="11">
-        <v>81010674</v>
+        <v>82962740</v>
       </c>
       <c r="L63" s="11">
-        <v>82962740</v>
+        <v>69272889</v>
       </c>
       <c r="M63" s="11">
-        <v>69272889</v>
+        <v>78311808</v>
       </c>
       <c r="N63" s="11">
-        <v>78311808</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>95566439</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>21</v>
       </c>
@@ -2581,37 +2581,37 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>55390979</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>17</v>
+        <v>78496831</v>
+      </c>
+      <c r="F64" s="9">
+        <v>143313436</v>
       </c>
       <c r="G64" s="9">
-        <v>143313436</v>
+        <v>197828126</v>
       </c>
       <c r="H64" s="9">
-        <v>197828126</v>
+        <v>195965558</v>
       </c>
       <c r="I64" s="9">
-        <v>195965558</v>
+        <v>236859566</v>
       </c>
       <c r="J64" s="9">
-        <v>236859566</v>
+        <v>187133850</v>
       </c>
       <c r="K64" s="9">
-        <v>187133850</v>
+        <v>152605912</v>
       </c>
       <c r="L64" s="9">
-        <v>152605912</v>
+        <v>140038628</v>
       </c>
       <c r="M64" s="9">
-        <v>140038628</v>
+        <v>112835350</v>
       </c>
       <c r="N64" s="9">
-        <v>112835350</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>115715499</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>29</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>30</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>31</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>22</v>
       </c>
@@ -2776,37 +2776,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>5167700</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>17</v>
+        <v>5724001</v>
+      </c>
+      <c r="F69" s="11">
+        <v>7062631</v>
       </c>
       <c r="G69" s="11">
-        <v>7062631</v>
+        <v>6667417</v>
       </c>
       <c r="H69" s="11">
-        <v>6667417</v>
+        <v>7150425</v>
       </c>
       <c r="I69" s="11">
-        <v>7150425</v>
+        <v>12395295</v>
       </c>
       <c r="J69" s="11">
-        <v>12395295</v>
+        <v>12869158</v>
       </c>
       <c r="K69" s="11">
-        <v>12869158</v>
+        <v>6960853</v>
       </c>
       <c r="L69" s="11">
-        <v>6960853</v>
+        <v>8704166</v>
       </c>
       <c r="M69" s="11">
-        <v>8704166</v>
+        <v>9236693</v>
       </c>
       <c r="N69" s="11">
-        <v>9236693</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8499643</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>23</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2860,7 +2860,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2875,7 +2875,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2890,7 +2890,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>39</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2942,7 +2942,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>26</v>
       </c>
@@ -2953,14 +2953,14 @@
       <c r="E76" s="9">
         <v>0</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>17</v>
+      <c r="F76" s="9">
+        <v>0</v>
       </c>
       <c r="G76" s="9">
         <v>0</v>
       </c>
-      <c r="H76" s="9">
-        <v>0</v>
+      <c r="H76" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>17</v>
@@ -2981,7 +2981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>18</v>
       </c>
@@ -2990,37 +2990,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-64257</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>17</v>
+        <v>-151801</v>
+      </c>
+      <c r="F77" s="11">
+        <v>-174124</v>
       </c>
       <c r="G77" s="11">
-        <v>-174124</v>
+        <v>-151207</v>
       </c>
       <c r="H77" s="11">
-        <v>-151207</v>
+        <v>-195713</v>
       </c>
       <c r="I77" s="11">
-        <v>-195713</v>
+        <v>-291903</v>
       </c>
       <c r="J77" s="11">
-        <v>-291903</v>
+        <v>-380047</v>
       </c>
       <c r="K77" s="11">
-        <v>-380047</v>
+        <v>-209529</v>
       </c>
       <c r="L77" s="11">
-        <v>-209529</v>
+        <v>-227038</v>
       </c>
       <c r="M77" s="11">
-        <v>-227038</v>
+        <v>-314558</v>
       </c>
       <c r="N77" s="11">
-        <v>-314558</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-314572</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>20</v>
       </c>
@@ -3029,37 +3029,37 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>-2882889</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>17</v>
+        <v>-5701162</v>
+      </c>
+      <c r="F78" s="9">
+        <v>-6795827</v>
       </c>
       <c r="G78" s="9">
-        <v>-6795827</v>
+        <v>-3588274</v>
       </c>
       <c r="H78" s="9">
-        <v>-3588274</v>
+        <v>-7639852</v>
       </c>
       <c r="I78" s="9">
-        <v>-7639852</v>
+        <v>-12745199</v>
       </c>
       <c r="J78" s="9">
-        <v>-12745199</v>
+        <v>-19999299</v>
       </c>
       <c r="K78" s="9">
-        <v>-19999299</v>
+        <v>-10587145</v>
       </c>
       <c r="L78" s="9">
-        <v>-10587145</v>
+        <v>-17743648</v>
       </c>
       <c r="M78" s="9">
-        <v>-17743648</v>
+        <v>-5816208</v>
       </c>
       <c r="N78" s="9">
-        <v>-5816208</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9790985</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>21</v>
       </c>
@@ -3068,37 +3068,37 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>-868004</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>17</v>
+        <v>-1989776</v>
+      </c>
+      <c r="F79" s="11">
+        <v>-1999642</v>
       </c>
       <c r="G79" s="11">
-        <v>-1999642</v>
+        <v>-1954312</v>
       </c>
       <c r="H79" s="11">
-        <v>-1954312</v>
+        <v>-2102461</v>
       </c>
       <c r="I79" s="11">
-        <v>-2102461</v>
+        <v>-3570031</v>
       </c>
       <c r="J79" s="11">
-        <v>-3570031</v>
+        <v>-5931893</v>
       </c>
       <c r="K79" s="11">
-        <v>-5931893</v>
+        <v>-3469219</v>
       </c>
       <c r="L79" s="11">
-        <v>-3469219</v>
+        <v>-3358151</v>
       </c>
       <c r="M79" s="11">
-        <v>-3358151</v>
+        <v>-3512941</v>
       </c>
       <c r="N79" s="11">
-        <v>-3512941</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5149750</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>22</v>
       </c>
@@ -3107,37 +3107,37 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>-64792</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>17</v>
+        <v>-57358</v>
+      </c>
+      <c r="F80" s="9">
+        <v>-49926</v>
       </c>
       <c r="G80" s="9">
-        <v>-49926</v>
+        <v>-47710</v>
       </c>
       <c r="H80" s="9">
-        <v>-47710</v>
+        <v>-44629</v>
       </c>
       <c r="I80" s="9">
-        <v>-44629</v>
+        <v>-35335</v>
       </c>
       <c r="J80" s="9">
-        <v>-35335</v>
+        <v>-121320</v>
       </c>
       <c r="K80" s="9">
-        <v>-121320</v>
+        <v>-57483</v>
       </c>
       <c r="L80" s="9">
-        <v>-57483</v>
+        <v>-70298</v>
       </c>
       <c r="M80" s="9">
-        <v>-70298</v>
+        <v>-67580</v>
       </c>
       <c r="N80" s="9">
-        <v>-67580</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1868</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>23</v>
       </c>
@@ -3148,8 +3148,8 @@
       <c r="E81" s="11">
         <v>0</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>17</v>
+      <c r="F81" s="11">
+        <v>0</v>
       </c>
       <c r="G81" s="11">
         <v>0</v>
@@ -3176,44 +3176,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>-3879942</v>
+        <v>-7900097</v>
       </c>
       <c r="F82" s="15">
-        <v>0</v>
+        <v>-9019519</v>
       </c>
       <c r="G82" s="15">
-        <v>-9019519</v>
+        <v>-5741503</v>
       </c>
       <c r="H82" s="15">
-        <v>-5741503</v>
+        <v>-9982655</v>
       </c>
       <c r="I82" s="15">
-        <v>-9982655</v>
+        <v>-16642468</v>
       </c>
       <c r="J82" s="15">
-        <v>-16642468</v>
+        <v>-26432559</v>
       </c>
       <c r="K82" s="15">
-        <v>-26432559</v>
+        <v>-14323376</v>
       </c>
       <c r="L82" s="15">
-        <v>-14323376</v>
+        <v>-21399135</v>
       </c>
       <c r="M82" s="15">
-        <v>-21399135</v>
+        <v>-9711287</v>
       </c>
       <c r="N82" s="15">
-        <v>-9711287</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-15257175</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3228,7 +3228,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3243,7 +3243,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3258,7 +3258,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>40</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3310,7 +3310,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>26</v>
       </c>
@@ -3321,14 +3321,14 @@
       <c r="E88" s="9">
         <v>0</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>17</v>
+      <c r="F88" s="9">
+        <v>0</v>
       </c>
       <c r="G88" s="9">
         <v>0</v>
       </c>
-      <c r="H88" s="9">
-        <v>0</v>
+      <c r="H88" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>17</v>
@@ -3349,7 +3349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>18</v>
       </c>
@@ -3358,37 +3358,37 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>47664</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>17</v>
+        <v>-49098</v>
+      </c>
+      <c r="F89" s="11">
+        <v>-3542</v>
       </c>
       <c r="G89" s="11">
-        <v>-3542</v>
+        <v>-50402</v>
       </c>
       <c r="H89" s="11">
-        <v>-50402</v>
+        <v>40061</v>
       </c>
       <c r="I89" s="11">
-        <v>40061</v>
+        <v>-177478</v>
       </c>
       <c r="J89" s="11">
-        <v>-177478</v>
+        <v>222778</v>
       </c>
       <c r="K89" s="11">
-        <v>222778</v>
+        <v>-62436</v>
       </c>
       <c r="L89" s="11">
-        <v>-62436</v>
+        <v>396358</v>
       </c>
       <c r="M89" s="11">
-        <v>396358</v>
+        <v>61358</v>
       </c>
       <c r="N89" s="11">
-        <v>61358</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>186946</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>20</v>
       </c>
@@ -3397,37 +3397,37 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
-        <v>5045137</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>17</v>
+        <v>7572756</v>
+      </c>
+      <c r="F90" s="9">
+        <v>8998756</v>
       </c>
       <c r="G90" s="9">
-        <v>8998756</v>
+        <v>7512923</v>
       </c>
       <c r="H90" s="9">
-        <v>7512923</v>
+        <v>8293370</v>
       </c>
       <c r="I90" s="9">
-        <v>8293370</v>
+        <v>7387923</v>
       </c>
       <c r="J90" s="9">
-        <v>7387923</v>
+        <v>-3075116</v>
       </c>
       <c r="K90" s="9">
-        <v>-3075116</v>
+        <v>5662435</v>
       </c>
       <c r="L90" s="9">
-        <v>5662435</v>
+        <v>2225232</v>
       </c>
       <c r="M90" s="9">
-        <v>2225232</v>
+        <v>4625027</v>
       </c>
       <c r="N90" s="9">
-        <v>4625027</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7633835</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>21</v>
       </c>
@@ -3436,37 +3436,37 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>1243057</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>17</v>
+        <v>1118620</v>
+      </c>
+      <c r="F91" s="11">
+        <v>3944856</v>
       </c>
       <c r="G91" s="11">
-        <v>3944856</v>
+        <v>5067993</v>
       </c>
       <c r="H91" s="11">
-        <v>5067993</v>
+        <v>4696760</v>
       </c>
       <c r="I91" s="11">
-        <v>4696760</v>
+        <v>4696131</v>
       </c>
       <c r="J91" s="11">
-        <v>4696131</v>
+        <v>485301</v>
       </c>
       <c r="K91" s="11">
-        <v>485301</v>
+        <v>1073859</v>
       </c>
       <c r="L91" s="11">
-        <v>1073859</v>
+        <v>397685</v>
       </c>
       <c r="M91" s="11">
-        <v>397685</v>
+        <v>-155638</v>
       </c>
       <c r="N91" s="11">
-        <v>-155638</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39743</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>22</v>
       </c>
@@ -3475,37 +3475,37 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
-        <v>42753</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>17</v>
+        <v>27569</v>
+      </c>
+      <c r="F92" s="9">
+        <v>41302</v>
       </c>
       <c r="G92" s="9">
-        <v>41302</v>
+        <v>44067</v>
       </c>
       <c r="H92" s="9">
-        <v>44067</v>
+        <v>36085</v>
       </c>
       <c r="I92" s="9">
-        <v>36085</v>
+        <v>23679</v>
       </c>
       <c r="J92" s="9">
-        <v>23679</v>
+        <v>-4571</v>
       </c>
       <c r="K92" s="9">
-        <v>-4571</v>
+        <v>28400</v>
       </c>
       <c r="L92" s="9">
-        <v>28400</v>
+        <v>14733</v>
       </c>
       <c r="M92" s="9">
-        <v>14733</v>
+        <v>20224</v>
       </c>
       <c r="N92" s="9">
-        <v>20224</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57689</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>23</v>
       </c>
@@ -3516,8 +3516,8 @@
       <c r="E93" s="11">
         <v>0</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>17</v>
+      <c r="F93" s="11">
+        <v>0</v>
       </c>
       <c r="G93" s="11">
         <v>0</v>
@@ -3544,41 +3544,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15">
-        <v>6378611</v>
+        <v>8669847</v>
       </c>
       <c r="F94" s="15">
-        <v>0</v>
+        <v>12981372</v>
       </c>
       <c r="G94" s="15">
-        <v>12981372</v>
+        <v>12574581</v>
       </c>
       <c r="H94" s="15">
-        <v>12574581</v>
+        <v>13066276</v>
       </c>
       <c r="I94" s="15">
-        <v>13066276</v>
+        <v>11930255</v>
       </c>
       <c r="J94" s="15">
-        <v>11930255</v>
+        <v>-2371608</v>
       </c>
       <c r="K94" s="15">
-        <v>-2371608</v>
+        <v>6702258</v>
       </c>
       <c r="L94" s="15">
-        <v>6702258</v>
+        <v>3034008</v>
       </c>
       <c r="M94" s="15">
-        <v>3034008</v>
+        <v>4550971</v>
       </c>
       <c r="N94" s="15">
-        <v>4550971</v>
+        <v>7918213</v>
       </c>
     </row>
   </sheetData>
